--- a/Fairy Alignment Questions.xlsx
+++ b/Fairy Alignment Questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmunoz/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmunozqrails.com/Development/fairies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2D3F26-875D-9C49-94C9-5077C9F8154D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A87A36-B907-004B-8F11-8784EA62ED38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="5420" windowWidth="28040" windowHeight="13360" xr2:uid="{31D0CD0E-119D-FB4B-ACD1-9DF3AEEAF5A2}"/>
+    <workbookView xWindow="5180" yWindow="5380" windowWidth="28040" windowHeight="13360" xr2:uid="{31D0CD0E-119D-FB4B-ACD1-9DF3AEEAF5A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
   <si>
     <t>Section</t>
   </si>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24DFB3C-3912-2A49-B31A-CF9EA0ED5393}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -751,7 +751,9 @@
       <c r="A10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="C10" s="5" t="s">
         <v>30</v>
       </c>
@@ -770,7 +772,9 @@
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="C11" s="5" t="s">
         <v>30</v>
       </c>
@@ -789,7 +793,9 @@
       <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="C12" s="5" t="s">
         <v>31</v>
       </c>
@@ -808,7 +814,9 @@
       <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="C13" s="5" t="s">
         <v>31</v>
       </c>
@@ -827,7 +835,9 @@
       <c r="A14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="C14" s="5" t="s">
         <v>31</v>
       </c>
@@ -846,7 +856,9 @@
       <c r="A15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="C15" s="5" t="s">
         <v>31</v>
       </c>
